--- a/youtube数据集概要.xlsx
+++ b/youtube数据集概要.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duansuyang/PycharmProjects/IS5740/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duansuyang/23-24B-BDA-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D488B92-D803-EA4E-BF90-C7209D50FDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7086FE6-7DAD-BD42-B7CA-BA073405A3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="21360" xr2:uid="{ECC3B540-1612-7343-8500-86F96B622FA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>rank</t>
   </si>
@@ -324,6 +324,24 @@
   </si>
   <si>
     <t>the rate at which content is uploaded or published by a channel or creator. (yearly)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增数据</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +395,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +458,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A99E35-8664-DE4F-BCFB-A14A84D9C54E}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -747,342 +794,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
+      <c r="A1" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
+        <v>49</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
       <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
-      <c r="A31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>85</v>
+      <c r="A31" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18">
       <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18">
+      <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>91</v>
       </c>
     </row>
